--- a/TRICC/medications_zscores.xlsx
+++ b/TRICC/medications_zscores.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="373">
   <si>
     <t>type</t>
   </si>
@@ -1141,6 +1141,9 @@
   </si>
   <si>
     <t>ds_amoxisyr_30</t>
+  </si>
+  <si>
+    <t>ds_azythrosyr_10</t>
   </si>
 </sst>
 </file>
@@ -3253,13 +3256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ175"/>
+  <dimension ref="A1:AMJ176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="15.75"/>
@@ -8815,10 +8818,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>11</v>
@@ -8829,10 +8832,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
@@ -8843,10 +8846,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
@@ -8857,10 +8860,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
@@ -8871,10 +8874,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
@@ -8885,13 +8888,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8899,10 +8902,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>61</v>
@@ -8913,13 +8916,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8927,10 +8930,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>11</v>
@@ -8941,10 +8944,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>11</v>
@@ -8955,13 +8958,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8969,13 +8972,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8983,13 +8986,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8997,13 +9000,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -9011,13 +9014,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -9025,10 +9028,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>11</v>
@@ -9039,10 +9042,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>11</v>
@@ -9053,10 +9056,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>11</v>
@@ -9067,13 +9070,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -9081,13 +9084,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -9095,10 +9098,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>11</v>
@@ -9109,10 +9112,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>11</v>
@@ -9123,13 +9126,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -9137,10 +9140,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>61</v>
@@ -9151,13 +9154,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -9165,10 +9168,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>7</v>
@@ -9179,13 +9182,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -9193,10 +9196,10 @@
         <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>11</v>
@@ -9207,10 +9210,10 @@
         <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>11</v>
@@ -9221,10 +9224,10 @@
         <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>11</v>
@@ -9235,10 +9238,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>11</v>
@@ -9249,10 +9252,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>11</v>
@@ -9263,10 +9266,10 @@
         <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>11</v>
@@ -9277,10 +9280,10 @@
         <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>11</v>
@@ -9291,13 +9294,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -9305,13 +9308,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -9319,10 +9322,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>11</v>
@@ -9333,13 +9336,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -9347,13 +9350,13 @@
         <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -9361,10 +9364,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>61</v>
@@ -9375,13 +9378,13 @@
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -9392,10 +9395,10 @@
         <v>128</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -9403,10 +9406,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>11</v>
@@ -9417,13 +9420,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -9431,13 +9434,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -9445,13 +9448,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -9459,10 +9462,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>61</v>
@@ -9473,13 +9476,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -9487,13 +9490,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -9501,10 +9504,10 @@
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>7</v>
@@ -9515,10 +9518,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>7</v>
@@ -9529,10 +9532,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>7</v>
@@ -9543,13 +9546,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -9557,10 +9560,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>11</v>
@@ -9571,13 +9574,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -9585,10 +9588,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>61</v>
@@ -9599,10 +9602,10 @@
         <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>61</v>
@@ -9613,13 +9616,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -9627,13 +9630,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -9641,10 +9644,10 @@
         <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>11</v>
@@ -9655,13 +9658,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -9669,10 +9672,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>7</v>
@@ -9683,13 +9686,13 @@
         <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -9697,13 +9700,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -9711,13 +9714,13 @@
         <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -9725,10 +9728,10 @@
         <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>61</v>
@@ -9739,13 +9742,13 @@
         <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -9753,13 +9756,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -9767,13 +9770,13 @@
         <v>4</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -9781,13 +9784,13 @@
         <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -9798,10 +9801,10 @@
         <v>178</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -9809,13 +9812,13 @@
         <v>4</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -9826,10 +9829,10 @@
         <v>181</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -9837,13 +9840,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -9851,10 +9854,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>11</v>
@@ -9865,10 +9868,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>11</v>
@@ -9879,10 +9882,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>11</v>
@@ -9893,10 +9896,10 @@
         <v>4</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>11</v>
@@ -9907,10 +9910,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>11</v>
@@ -9921,10 +9924,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>11</v>
@@ -9935,10 +9938,10 @@
         <v>4</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>11</v>
@@ -9949,10 +9952,10 @@
         <v>4</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>11</v>
@@ -9963,10 +9966,10 @@
         <v>4</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>11</v>
@@ -9977,13 +9980,13 @@
         <v>4</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -9991,13 +9994,13 @@
         <v>4</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -10005,10 +10008,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>208</v>
@@ -10019,10 +10022,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>208</v>
@@ -10033,10 +10036,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>208</v>
@@ -10047,10 +10050,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>208</v>
@@ -10061,10 +10064,10 @@
         <v>4</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>208</v>
@@ -10075,10 +10078,10 @@
         <v>4</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>208</v>
@@ -10089,10 +10092,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>208</v>
@@ -10103,10 +10106,10 @@
         <v>4</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>208</v>
@@ -10117,10 +10120,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>208</v>
@@ -10131,10 +10134,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>208</v>
@@ -10145,10 +10148,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>208</v>
@@ -10159,10 +10162,10 @@
         <v>4</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>208</v>
@@ -10173,10 +10176,10 @@
         <v>4</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>208</v>
@@ -10187,10 +10190,10 @@
         <v>4</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>208</v>
@@ -10201,10 +10204,10 @@
         <v>4</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>208</v>
@@ -10215,10 +10218,10 @@
         <v>4</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>208</v>
@@ -10229,10 +10232,10 @@
         <v>4</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>208</v>
@@ -10243,10 +10246,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>208</v>
@@ -10257,10 +10260,10 @@
         <v>4</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>208</v>
@@ -10271,10 +10274,10 @@
         <v>4</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>208</v>
@@ -10285,10 +10288,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>208</v>
@@ -10299,10 +10302,10 @@
         <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>208</v>
@@ -10313,10 +10316,10 @@
         <v>4</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>208</v>
@@ -10327,10 +10330,10 @@
         <v>4</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>208</v>
@@ -10341,10 +10344,10 @@
         <v>4</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>208</v>
@@ -10355,10 +10358,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>208</v>
@@ -10369,10 +10372,10 @@
         <v>4</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>208</v>
@@ -10383,10 +10386,10 @@
         <v>4</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>208</v>
@@ -10397,10 +10400,10 @@
         <v>4</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>208</v>
@@ -10411,10 +10414,10 @@
         <v>4</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>208</v>
@@ -10425,10 +10428,10 @@
         <v>4</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>208</v>
@@ -10439,10 +10442,10 @@
         <v>4</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>208</v>
@@ -10453,10 +10456,10 @@
         <v>4</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>208</v>
@@ -10467,10 +10470,10 @@
         <v>4</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>208</v>
@@ -10481,10 +10484,10 @@
         <v>4</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>208</v>
@@ -10495,10 +10498,10 @@
         <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>208</v>
@@ -10509,10 +10512,10 @@
         <v>4</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>208</v>
@@ -10523,10 +10526,10 @@
         <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>208</v>
@@ -10537,10 +10540,10 @@
         <v>4</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>208</v>
@@ -10551,10 +10554,10 @@
         <v>4</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>208</v>
@@ -10565,10 +10568,10 @@
         <v>4</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>208</v>
@@ -10579,10 +10582,10 @@
         <v>4</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>208</v>
@@ -10593,10 +10596,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>208</v>
@@ -10607,10 +10610,10 @@
         <v>4</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>208</v>
@@ -10621,10 +10624,10 @@
         <v>4</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>164</v>
+        <v>291</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>208</v>
@@ -10635,10 +10638,10 @@
         <v>4</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>208</v>
@@ -10649,10 +10652,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>208</v>
@@ -10663,10 +10666,10 @@
         <v>4</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>208</v>
@@ -10677,10 +10680,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>208</v>
@@ -10691,10 +10694,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>208</v>
@@ -10705,10 +10708,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>208</v>
@@ -10719,10 +10722,10 @@
         <v>4</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>208</v>
@@ -10733,10 +10736,10 @@
         <v>4</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>208</v>
@@ -10747,10 +10750,10 @@
         <v>4</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>208</v>
@@ -10761,10 +10764,10 @@
         <v>4</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>208</v>
@@ -10775,10 +10778,10 @@
         <v>4</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>208</v>
@@ -10789,10 +10792,10 @@
         <v>4</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>208</v>
@@ -10803,10 +10806,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>208</v>
@@ -10817,47 +10820,61 @@
         <v>4</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>208</v>
       </c>
     </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="218" priority="210">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="217" priority="211">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="216" priority="212">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="215" priority="213">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="214" priority="214">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="213" priority="215">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="212" priority="216">
       <formula>$A1="note"</formula>
     </cfRule>
@@ -10868,17 +10885,17 @@
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C2 C5:C7 B10:C10 B63:C87 B4:B7 B21:C50 B89:C1048576 B12:C18 B19:B20">
+  <conditionalFormatting sqref="B1:C2 C5:C7 B10:C10 B64:C88 B4:B7 B12:C18 B19:B20 B90:C1048576 B21:C51">
     <cfRule type="expression" dxfId="209" priority="219">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="208" priority="220">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C2 C5:C7 A10:C10 A63:C87 A4:B7 A21:C50 A89:C1048576 A12:C18 B19:B20">
+  <conditionalFormatting sqref="A1:C2 C5:C7 A10:C10 A64:C88 A4:B7 A12:C18 B19:B20 A90:C1048576 A21:C51">
     <cfRule type="expression" dxfId="207" priority="221">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
@@ -10922,42 +10939,42 @@
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B10 B63:B87 B4:B7 B89:B1048576 B12:B50">
+  <conditionalFormatting sqref="B1:B2 B10 B64:B88 B4:B7 B90:B1048576 B12:B51">
     <cfRule type="expression" dxfId="193" priority="235">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B51:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B52:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="192" priority="236">
       <formula>$A8="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B51:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B52:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="191" priority="237">
       <formula>$A8="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B51:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B52:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="190" priority="238">
       <formula>$A8="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B51:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B52:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="189" priority="239">
       <formula>$A8="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B51:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B52:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="188" priority="240">
       <formula>$A8="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B51:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B52:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="187" priority="241">
       <formula>OR(AND(LEFT($A8, 16)="select_multiple ", LEN($A8)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A8, 17)))), AND(LEFT($A8, 11)="select_one ", LEN($A8)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A8, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B51:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B52:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="186" priority="242">
       <formula>$A8="note"</formula>
     </cfRule>
@@ -10968,17 +10985,17 @@
       <formula>OR($A8="geopoint", $A8="geoshape", $A8="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:C87 C4 B8:C9 B11:C11 B89:C115">
+  <conditionalFormatting sqref="B52:C88 C4 B8:C9 B11:C11 B90:C116">
     <cfRule type="expression" dxfId="183" priority="245">
       <formula>OR(#REF!="calculate", #REF!="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B61">
+  <conditionalFormatting sqref="B52:B62">
     <cfRule type="expression" dxfId="182" priority="246">
       <formula>OR(#REF!="date", #REF!="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:C61">
+  <conditionalFormatting sqref="A52:C62">
     <cfRule type="expression" dxfId="181" priority="247">
       <formula>OR(#REF!="date", #REF!="datetime")</formula>
     </cfRule>
@@ -11022,12 +11039,12 @@
       <formula>#REF!="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B51:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B52:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="167" priority="261">
       <formula>$A8="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4 A8:C9 A11:C11 A62:C87 A89:C115">
+  <conditionalFormatting sqref="C4 A8:C9 A11:C11 A63:C88 A90:C116">
     <cfRule type="expression" dxfId="166" priority="262">
       <formula>OR(#REF!="date", #REF!="datetime")</formula>
     </cfRule>
@@ -11071,163 +11088,163 @@
       <formula>#REF!="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9 B11 B62:B87 B89:B115 B17:B20">
+  <conditionalFormatting sqref="B8:B9 B11 B63:B88 B90:B116 B17:B20">
     <cfRule type="expression" dxfId="152" priority="276">
       <formula>OR($A8="date", $A8="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="151" priority="157">
-      <formula>$A88="begin group"</formula>
+      <formula>$A89="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="150" priority="158">
-      <formula>$A88="begin repeat"</formula>
+      <formula>$A89="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="149" priority="159">
-      <formula>$A88="text"</formula>
+      <formula>$A89="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="148" priority="160">
-      <formula>$A88="integer"</formula>
+      <formula>$A89="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="147" priority="161">
-      <formula>$A88="decimal"</formula>
+      <formula>$A89="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="146" priority="162">
-      <formula>OR(AND(LEFT($A88, 16)="select_multiple ", LEN($A88)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A88, 17)))), AND(LEFT($A88, 11)="select_one ", LEN($A88)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A88, 12)))))</formula>
+      <formula>OR(AND(LEFT($A89, 16)="select_multiple ", LEN($A89)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A89, 17)))), AND(LEFT($A89, 11)="select_one ", LEN($A89)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A89, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="145" priority="163">
-      <formula>$A88="note"</formula>
+      <formula>$A89="note"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="144" priority="164">
-      <formula>$A88="barcode"</formula>
+      <formula>$A89="barcode"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="143" priority="165">
-      <formula>OR($A88="geopoint", $A88="geoshape", $A88="geotrace")</formula>
+      <formula>OR($A89="geopoint", $A89="geoshape", $A89="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:C88">
+  <conditionalFormatting sqref="B89:C89">
     <cfRule type="expression" dxfId="142" priority="166">
-      <formula>OR($A88="calculate", $A88="calculate_here")</formula>
+      <formula>OR($A89="calculate", $A89="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="141" priority="167">
-      <formula>OR($A88="date", $A88="datetime")</formula>
+      <formula>OR($A89="date", $A89="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:C88">
+  <conditionalFormatting sqref="A89:C89">
     <cfRule type="expression" dxfId="140" priority="168">
-      <formula>OR($A88="date", $A88="datetime")</formula>
+      <formula>OR($A89="date", $A89="datetime")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="139" priority="169">
-      <formula>OR($A88="calculate", $A88="calculate_here")</formula>
+      <formula>OR($A89="calculate", $A89="calculate_here")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="138" priority="170">
-      <formula>$A88="note"</formula>
+      <formula>$A89="note"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="137" priority="171">
-      <formula>$A88="barcode"</formula>
+      <formula>$A89="barcode"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="136" priority="172">
-      <formula>OR($A88="geopoint", $A88="geoshape", $A88="geotrace")</formula>
+      <formula>OR($A89="geopoint", $A89="geoshape", $A89="geotrace")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="135" priority="173">
-      <formula>OR($A88="username", $A88="phonenumber", $A88="start", $A88="end", $A88="deviceid", $A88="subscriberid", $A88="simserial", $A88="caseid")</formula>
+      <formula>OR($A89="username", $A89="phonenumber", $A89="start", $A89="end", $A89="deviceid", $A89="subscriberid", $A89="simserial", $A89="caseid")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="134" priority="174">
-      <formula>OR(AND(LEFT($A88, 16)="select_multiple ", LEN($A88)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A88, 17)))), AND(LEFT($A88, 11)="select_one ", LEN($A88)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A88, 12)))))</formula>
+      <formula>OR(AND(LEFT($A89, 16)="select_multiple ", LEN($A89)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A89, 17)))), AND(LEFT($A89, 11)="select_one ", LEN($A89)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A89, 12)))))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="133" priority="175">
-      <formula>$A88="decimal"</formula>
+      <formula>$A89="decimal"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="132" priority="176">
-      <formula>$A88="integer"</formula>
+      <formula>$A89="integer"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="131" priority="177">
-      <formula>$A88="text"</formula>
+      <formula>$A89="text"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="130" priority="178">
-      <formula>$A88="end repeat"</formula>
+      <formula>$A89="end repeat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="129" priority="179">
-      <formula>$A88="begin repeat"</formula>
+      <formula>$A89="begin repeat"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="128" priority="180">
-      <formula>$A88="end group"</formula>
+      <formula>$A89="end group"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="127" priority="181">
-      <formula>$A88="begin group"</formula>
+      <formula>$A89="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="126" priority="182">
-      <formula>$A88="comments"</formula>
+      <formula>$A89="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="125" priority="183">
-      <formula>$A88="begin group"</formula>
+      <formula>$A89="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="124" priority="184">
-      <formula>$A88="begin repeat"</formula>
+      <formula>$A89="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="123" priority="185">
-      <formula>$A88="text"</formula>
+      <formula>$A89="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="122" priority="186">
-      <formula>$A88="integer"</formula>
+      <formula>$A89="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="121" priority="187">
-      <formula>$A88="decimal"</formula>
+      <formula>$A89="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="120" priority="188">
-      <formula>OR(AND(LEFT($A88, 16)="select_multiple ", LEN($A88)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A88, 17)))), AND(LEFT($A88, 11)="select_one ", LEN($A88)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A88, 12)))))</formula>
+      <formula>OR(AND(LEFT($A89, 16)="select_multiple ", LEN($A89)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A89, 17)))), AND(LEFT($A89, 11)="select_one ", LEN($A89)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A89, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="119" priority="189">
-      <formula>$A88="note"</formula>
+      <formula>$A89="note"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="118" priority="190">
-      <formula>$A88="barcode"</formula>
+      <formula>$A89="barcode"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="117" priority="191">
-      <formula>OR($A88="geopoint", $A88="geoshape", $A88="geotrace")</formula>
+      <formula>OR($A89="geopoint", $A89="geoshape", $A89="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88:C88">
+  <conditionalFormatting sqref="B89:C89">
     <cfRule type="expression" dxfId="116" priority="192">
       <formula>OR(#REF!="calculate", #REF!="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="115" priority="193">
-      <formula>$A88="comments"</formula>
+      <formula>$A89="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:C88">
+  <conditionalFormatting sqref="A89:C89">
     <cfRule type="expression" dxfId="114" priority="194">
       <formula>OR(#REF!="date", #REF!="datetime")</formula>
     </cfRule>
@@ -11271,9 +11288,9 @@
       <formula>#REF!="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B89">
     <cfRule type="expression" dxfId="100" priority="208">
-      <formula>OR($A88="date", $A88="datetime")</formula>
+      <formula>OR($A89="date", $A89="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
